--- a/data/trans_dic/P31_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P31_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas</t>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,15%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>80,44%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>85,48%</t>
+          <t>79,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>86,35%</t>
+          <t>81,58%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>86,4%</t>
+          <t>59,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,31%</t>
+          <t>83,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>89,08%</t>
+          <t>81,87%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>83,56%</t>
+          <t>82,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86,85%</t>
+          <t>78,44%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>87,58%</t>
+          <t>83,39%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>80,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>81,79%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>69,8%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,02; 89,28</t>
+          <t>69,28; 93,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>73,87; 92,44</t>
+          <t>61,14; 92,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,3; 93,78</t>
+          <t>65,13; 93,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,67; 92,95</t>
+          <t>39,8; 79,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>78,52; 94,14</t>
+          <t>67,86; 92,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,07; 94,6</t>
+          <t>68,42; 91,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>75,43; 89,47</t>
+          <t>67,18; 91,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>80,5; 92,04</t>
+          <t>63,21; 89,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>81,03; 93,05</t>
+          <t>72,81; 91,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>71,01; 88,86</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>71,62; 89,24</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>56,77; 80,55</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>83,38%</t>
+          <t>92,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87,37%</t>
+          <t>90,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>83,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>89,13%</t>
+          <t>88,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,66%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>88,32%</t>
+          <t>88,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>88,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>89,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>88,52%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,92; 97,3</t>
+          <t>80,88; 97,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>71,83; 90,61</t>
+          <t>81,52; 98,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>76,15; 93,94</t>
+          <t>78,14; 96,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>77,44; 91,72</t>
+          <t>84,84; 98,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>74,89; 90,34</t>
+          <t>72,24; 91,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>81,39; 94,18</t>
+          <t>71,15; 92,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>83,79; 93,32</t>
+          <t>78,59; 95,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77,53; 89,23</t>
+          <t>64,95; 88,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>81,63; 92,57</t>
+          <t>80,83; 93,64</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>79,57; 93,52</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>82,89; 94,77</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>80,4; 94,02</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,89%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>89,88%</t>
+          <t>82,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>81,13%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>85,83%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,75%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>88,21%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>84,64%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>84,52%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>94,64%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>90,8%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,42; 96,89</t>
+          <t>82,86; 96,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>83,61; 94,88</t>
+          <t>71,84; 91,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,55; 96,39</t>
+          <t>84,37; 98,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74,65; 86,44</t>
+          <t>81,37; 95,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,06; 91,67</t>
+          <t>71,54; 86,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>89,48; 97,54</t>
+          <t>77,35; 91,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,37; 90,57</t>
+          <t>89,05; 98,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,59; 91,89</t>
+          <t>83,55; 95,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,78; 95,8</t>
+          <t>78,24; 89,29</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>77,75; 89,66</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>89,73; 97,6</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>85,25; 94,45</t>
         </is>
       </c>
     </row>
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,38%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>87,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>81,87%</t>
+          <t>77,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,67%</t>
+          <t>84,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>86,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>87,95%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>84,17%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>88,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>90,39%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>84,26%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>80,55; 91,93</t>
+          <t>74,2; 91,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,83; 95,28</t>
+          <t>81,79; 96,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>83,16; 94,13</t>
+          <t>78,85; 93,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>74,98; 87,27</t>
+          <t>68,54; 85,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,61; 90,68</t>
+          <t>76,68; 91,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>82,87; 93,16</t>
+          <t>79,44; 92,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,7; 88,13</t>
+          <t>86,01; 96,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>83,15; 91,26</t>
+          <t>82,85; 95,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,08; 92,6</t>
+          <t>78,13; 88,79</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>82,71; 92,68</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85,33; 93,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>78,36; 89,4</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>86,4%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>85,58%</t>
+          <t>83,91%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>92,84%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>86,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>89,35%</t>
+          <t>87,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>86,99%</t>
+          <t>89,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>88,03%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>91,97%</t>
+          <t>86,12%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>85,52%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>91,31%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>92,63%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,48; 92,64</t>
+          <t>74,95; 92,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,11; 91,81</t>
+          <t>73,02; 91,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>89,3; 97,52</t>
+          <t>84,83; 97,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,67; 93,13</t>
+          <t>90,12; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,49; 95,25</t>
+          <t>75,03; 93,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>82,39; 94,57</t>
+          <t>76,26; 95,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>81,71; 91,42</t>
+          <t>77,0; 95,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>83,14; 91,97</t>
+          <t>77,32; 96,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,51; 95,1</t>
+          <t>79,02; 91,18</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>78,48; 91,53</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>84,92; 95,49</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>86,58; 96,55</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>74,75%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>89,8%</t>
+          <t>92,56%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>84,34%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>86,96%</t>
+          <t>81,46%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>86,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>83,26%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>81,61%</t>
+          <t>87,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>88,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>89,29%</t>
+          <t>80,24%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>87,55%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>85,95%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>85,4%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>63,7; 82,69</t>
+          <t>55,9; 84,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>82,37; 95,1</t>
+          <t>80,02; 97,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>79,81; 93,75</t>
+          <t>69,5; 93,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>78,14; 92,42</t>
+          <t>65,99; 90,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>80,85; 95,56</t>
+          <t>73,82; 95,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>82,81; 95,86</t>
+          <t>67,54; 93,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>74,97; 87,03</t>
+          <t>75,23; 95,12</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,49; 93,97</t>
+          <t>74,57; 95,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,78; 93,84</t>
+          <t>70,65; 87,27</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>76,85; 93,14</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>77,5; 92,65</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>73,95; 92,18</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>86,69%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>89,24%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,48%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>87,27%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>90,43%</t>
+          <t>85,08%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>85,52%</t>
+          <t>89,88%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>87,41%</t>
+          <t>86,53%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>84,66%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>86,04%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>89,39%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>85,84%</t>
         </is>
       </c>
     </row>
@@ -1345,64 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>83,44; 89,5</t>
+          <t>81,24; 88,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>84,23; 90,2</t>
+          <t>82,93; 90,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,88; 92,07</t>
+          <t>84,39; 91,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,44; 86,9</t>
+          <t>80,58; 89,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>84,38; 89,63</t>
+          <t>79,62; 87,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>87,86; 92,64</t>
+          <t>81,07; 88,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>83,28; 87,34</t>
+          <t>86,21; 92,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>85,41; 89,33</t>
+          <t>82,5; 89,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>87,89; 91,69</t>
+          <t>81,78; 87,02</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>83,18; 88,8</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>86,85; 91,68</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>82,89; 88,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que realiza una actividad física ligera &lt;= 2 días a la semana respecto a las últimas 2 semanas (tasa de respuesta: 99,15%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>86715</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>84106</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>104062</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>67885</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>111344</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>91688</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98907</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>110056</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>198058</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>175794</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>202968</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>177941</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>71706; 96923</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>64632; 97508</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>83078; 119194</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>45627; 91371</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>90938; 123455</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>76627; 102981</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>81017; 110162</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>88679; 124894</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>172930; 216978</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>154598; 193452</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>177723; 221453</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>144732; 205365</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>155767</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>132452</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>140356</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>215650</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>139007</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>105822</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>111190</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>104423</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>294773</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>238274</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>251546</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>320073</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>136473; 165339</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>116888; 140920</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>120552; 149634</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>193173; 224812</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>119267; 151382</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>90149; 117216</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>99271; 120065</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>86953; 117822</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>269841; 312620</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>214903; 252590</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>232583; 265918</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>290686; 339929</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>148957</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>109115</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>129682</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>158896</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>211706</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>172947</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>188394</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>199077</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>360663</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>282062</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>318076</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>357972</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>134273; 157127</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>94994; 121145</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>116125; 135681</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>142532; 167530</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>188912; 229449</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>155862; 185043</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>176734; 194743</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>183014; 209030</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>333390; 380490</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>259474; 299221</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>301585; 328042</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>336081; 372352</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>155799</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>144667</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>136852</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>153488</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>185146</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>158806</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>160238</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>184280</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>340945</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>303473</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>297089</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>337769</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>138522; 170080</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>130375; 153169</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>123180; 146419</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>134931; 169173</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>167450; 199364</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>145149; 168345</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>148332; 167271</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>169001; 194502</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>316456; 359648</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>282960; 317077</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>280466; 308544</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>314104; 358359</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>132858</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>109123</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>114368</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>148724</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>100444</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>75146</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>82736</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>115376</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>233301</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>184269</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>197104</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>264101</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>115956; 142589</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>94958; 119276</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>104508; 120084</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>139369; 154648</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>87189; 109098</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65152; 81739</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>71356; 88837</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>100875; 125243</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>214063; 247012</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>169113; 197233</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>183321; 206126</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>246841; 275275</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>78461</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>76640</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>76015</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>109462</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>119669</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>80498</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>96519</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>178292</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>198130</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>157138</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>172535</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>287754</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>61110; 92150</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>66263; 80870</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>62640; 84094</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>88673; 121480</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>101574; 131550</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>65298; 90236</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>83205; 105214</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>151057; 194137</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>174457; 215481</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>137934; 167166</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>155570; 185993</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>249187; 310604</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>261.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>265.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>325.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>595.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>635.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>577.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>758555</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>656103</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>701334</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>854104</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>867314</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>684906</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>737984</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>891505</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1625870</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1341009</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1439319</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1745609</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>718995; 787575</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>624983; 685142</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>665877; 724941</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>808525; 896974</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>824383; 901650</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>652643; 714414</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>707918; 760772</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>849924; 924901</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1570389; 1671120</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1296437; 1383967</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1398403; 1476112</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1685689; 1799765</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>